--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340454.6621144209</v>
+        <v>337771.7352010359</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>269.7995238678552</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>207.3473658540145</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>226.5334236161582</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.7356294164223</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>174.6184157697382</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>322.4224698088235</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19.59299030330403</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.4189382090671</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.13443795031329</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4091891100171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9023198566244</v>
+        <v>12.90231985662445</v>
       </c>
       <c r="H8" t="n">
-        <v>314.8915247705453</v>
+        <v>314.8915247705455</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9337877906755</v>
+        <v>117.9337877906759</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.320552192935</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.5880212640012</v>
       </c>
       <c r="U8" t="n">
         <v>251.1536194951557</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.0591804886594</v>
       </c>
       <c r="H9" t="n">
-        <v>99.83145582701493</v>
+        <v>99.83145582701499</v>
       </c>
       <c r="I9" t="n">
-        <v>45.17714646884016</v>
+        <v>45.17714646884033</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.4162992186647</v>
+        <v>20.416299218665</v>
       </c>
       <c r="S9" t="n">
-        <v>147.8271806796079</v>
+        <v>147.827180679608</v>
       </c>
       <c r="T9" t="n">
         <v>194.9879506074858</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13.19658194915635</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.23332811017343</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.2518740693164</v>
+        <v>15.51083960552535</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.344952879091</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2602978260757</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044178</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.9464125187636</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868892</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>34.78296171220851</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986247</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428556</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>173.4756821528522</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.86833396296457</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>174.2996212791706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>150.2480931018391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>14.75529838241477</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F43" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1031.394306626895</v>
+        <v>1174.127681740292</v>
       </c>
       <c r="C2" t="n">
-        <v>1031.394306626895</v>
+        <v>1174.127681740292</v>
       </c>
       <c r="D2" t="n">
-        <v>673.1286080201442</v>
+        <v>901.6029101566</v>
       </c>
       <c r="E2" t="n">
-        <v>673.1286080201442</v>
+        <v>901.6029101566</v>
       </c>
       <c r="F2" t="n">
-        <v>262.1427032305366</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>477.4022825530416</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.215540799241</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M2" t="n">
-        <v>1216.914953624649</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N2" t="n">
-        <v>1844.222621684495</v>
+        <v>1702.769255249435</v>
       </c>
       <c r="O2" t="n">
-        <v>2391.383826451573</v>
+        <v>2249.930460016512</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.830939477471</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.7680521339</v>
+        <v>1937.732771977184</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.999396863786</v>
+        <v>1937.732771977184</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.533638602706</v>
+        <v>1564.267013716104</v>
       </c>
       <c r="Y2" t="n">
-        <v>1031.394306626895</v>
+        <v>1174.127681740292</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3087392029699</v>
+        <v>295.3416275592184</v>
       </c>
       <c r="L3" t="n">
-        <v>346.1860297752926</v>
+        <v>799.7031674253369</v>
       </c>
       <c r="M3" t="n">
-        <v>986.7313792423972</v>
+        <v>1440.248516892442</v>
       </c>
       <c r="N3" t="n">
         <v>1638.905258545106</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>714.7173549707657</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="T4" t="n">
-        <v>714.7173549707657</v>
+        <v>817.3301633113501</v>
       </c>
       <c r="U4" t="n">
-        <v>714.7173549707657</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V4" t="n">
-        <v>460.0328667648788</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W4" t="n">
-        <v>170.6156967279182</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X4" t="n">
-        <v>170.6156967279182</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y4" t="n">
-        <v>170.6156967279182</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1761.168212069779</v>
+        <v>1187.609344130067</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.785973918528</v>
+        <v>1187.609344130067</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.785973918528</v>
+        <v>829.3436455233161</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.997721320284</v>
+        <v>829.3436455233161</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>784.1365874146478</v>
+        <v>295.8269799488417</v>
       </c>
       <c r="M5" t="n">
-        <v>1415.85439839796</v>
+        <v>927.5447909321535</v>
       </c>
       <c r="N5" t="n">
-        <v>2043.162066457806</v>
+        <v>1554.852458992</v>
       </c>
       <c r="O5" t="n">
-        <v>2213.331091774766</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.7680521339</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.7680521339</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.7680521339</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.7680521339</v>
+        <v>1187.609344130067</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>2297.869344338251</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2457.381657007012</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961286</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>763.4834245766374</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V7" t="n">
-        <v>508.7989363707505</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W7" t="n">
-        <v>219.3817663337899</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X7" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1307.384577648565</v>
+        <v>916.0727539940276</v>
       </c>
       <c r="C8" t="n">
-        <v>1307.384577648565</v>
+        <v>916.0727539940276</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.384577648565</v>
+        <v>916.0727539940276</v>
       </c>
       <c r="E8" t="n">
-        <v>1307.384577648565</v>
+        <v>913.9167560644182</v>
       </c>
       <c r="F8" t="n">
-        <v>906.9712553152142</v>
+        <v>502.9308512748106</v>
       </c>
       <c r="G8" t="n">
-        <v>489.8982049549875</v>
+        <v>489.8982049549879</v>
       </c>
       <c r="H8" t="n">
-        <v>171.8259577120124</v>
+        <v>171.8259577120128</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5662468401214</v>
+        <v>242.5662468401206</v>
       </c>
       <c r="K8" t="n">
-        <v>647.8699592025253</v>
+        <v>548.9360524646401</v>
       </c>
       <c r="L8" t="n">
-        <v>789.4770789311972</v>
+        <v>1104.027774598256</v>
       </c>
       <c r="M8" t="n">
-        <v>1423.730120002253</v>
+        <v>1738.280815669311</v>
       </c>
       <c r="N8" t="n">
-        <v>1620.640585655301</v>
+        <v>1935.191281322357</v>
       </c>
       <c r="O8" t="n">
-        <v>1956.919563296968</v>
+        <v>2484.78516851778</v>
       </c>
       <c r="P8" t="n">
-        <v>2388.310847806759</v>
+        <v>2597.595731937802</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2634.139020358379</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2479.166631331214</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.431256317072</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.355452238061</v>
+        <v>2010.74073157449</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.292564894491</v>
+        <v>1679.677844230919</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.523909624377</v>
+        <v>1679.677844230919</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.523909624377</v>
+        <v>1306.212085969839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.384577648565</v>
+        <v>916.0727539940276</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>965.7672227580512</v>
+        <v>965.7672227580514</v>
       </c>
       <c r="C9" t="n">
-        <v>791.3141934769242</v>
+        <v>791.3141934769244</v>
       </c>
       <c r="D9" t="n">
-        <v>642.3797838156729</v>
+        <v>642.3797838156731</v>
       </c>
       <c r="E9" t="n">
-        <v>483.1423288102174</v>
+        <v>483.1423288102176</v>
       </c>
       <c r="F9" t="n">
-        <v>336.6077708371023</v>
+        <v>336.6077708371025</v>
       </c>
       <c r="G9" t="n">
-        <v>199.1742551919918</v>
+        <v>199.174255191992</v>
       </c>
       <c r="H9" t="n">
-        <v>98.3344008212696</v>
+        <v>98.33440082126977</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>172.0900280890858</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K9" t="n">
-        <v>502.765873732374</v>
+        <v>121.5561805404473</v>
       </c>
       <c r="L9" t="n">
-        <v>1008.804752420555</v>
+        <v>627.595059228627</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.940091576946</v>
+        <v>1270.097783986116</v>
       </c>
       <c r="N9" t="n">
-        <v>1425.60601441958</v>
+        <v>1633.582529278074</v>
       </c>
       <c r="O9" t="n">
-        <v>1976.880031435719</v>
+        <v>2184.856546294212</v>
       </c>
       <c r="P9" t="n">
-        <v>2402.322963589618</v>
+        <v>2610.29947844811</v>
       </c>
       <c r="Q9" t="n">
-        <v>2634.022527499339</v>
+        <v>2634.02252749934</v>
       </c>
       <c r="R9" t="n">
-        <v>2613.400003036041</v>
+        <v>2613.400003036042</v>
       </c>
       <c r="S9" t="n">
         <v>2464.079618511185</v>
@@ -4917,7 +4917,7 @@
         <v>2038.98382370855</v>
       </c>
       <c r="V9" t="n">
-        <v>1803.831715476807</v>
+        <v>1803.831715476808</v>
       </c>
       <c r="W9" t="n">
         <v>1549.594358748606</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>402.4910247680674</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C10" t="n">
-        <v>233.5548418401605</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D10" t="n">
-        <v>83.43820242782476</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E10" t="n">
-        <v>70.10832167110118</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F10" t="n">
-        <v>70.10832167110118</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>70.10832167110118</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>70.10832167110118</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
-        <v>70.10832167110118</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="K10" t="n">
-        <v>154.5013008185172</v>
+        <v>154.5013008185167</v>
       </c>
       <c r="L10" t="n">
-        <v>340.297174813905</v>
+        <v>340.297174813904</v>
       </c>
       <c r="M10" t="n">
-        <v>546.5819965327554</v>
+        <v>546.5819965327537</v>
       </c>
       <c r="N10" t="n">
-        <v>753.3964426822319</v>
+        <v>753.3964426822296</v>
       </c>
       <c r="O10" t="n">
-        <v>928.4067620748888</v>
+        <v>928.406762074886</v>
       </c>
       <c r="P10" t="n">
-        <v>1054.63764205336</v>
+        <v>1054.637642053357</v>
       </c>
       <c r="Q10" t="n">
-        <v>1058.598280132157</v>
+        <v>1058.598280132153</v>
       </c>
       <c r="R10" t="n">
-        <v>1058.598280132157</v>
+        <v>1058.598280132153</v>
       </c>
       <c r="S10" t="n">
-        <v>851.2731548096149</v>
+        <v>1042.930765379097</v>
       </c>
       <c r="T10" t="n">
-        <v>851.2731548096149</v>
+        <v>817.3298028749649</v>
       </c>
       <c r="U10" t="n">
-        <v>851.2731548096149</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V10" t="n">
-        <v>851.2731548096149</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W10" t="n">
-        <v>851.2731548096149</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X10" t="n">
-        <v>623.2836039115975</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.4910247680674</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.19673200788</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409636</v>
       </c>
       <c r="F11" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060306</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1684.835676358895</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.1710892086095</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>762.2349062807026</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D13" t="n">
-        <v>612.1182668683668</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859737</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.382124608862</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.703342323244</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2105.703342323244</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.018854117357</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.601684080397</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.612133182379</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.819554038849</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121683</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121683</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121683</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,31 +5522,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6233,16 +6233,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>417.6289352913128</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>250.4328360061928</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>108.7210048483908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7394,64 +7394,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>94.65038286230612</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>98.9330356140897</v>
+        <v>29.50023327242749</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,16 +8058,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>176.8008973295439</v>
       </c>
       <c r="L3" t="n">
-        <v>89.54312379457448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>237.9126116742302</v>
       </c>
       <c r="P5" t="n">
-        <v>278.7842827623793</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>46.70479923672221</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>224.2121734419896</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>165.3305756528898</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>64.80030207271489</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>5.495976199527504</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>35.03093688020277</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>164.4634570195203</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.4278003012177</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84.88351775282777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5695380919223</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.29152613728996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>64.04844901173867</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.5555266462505</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864569</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272898</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>113.0473161837388</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.219052476067773e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.96364621897273</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856438</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182137</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529508</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51053793615077</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F43" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.469330230033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1048973.198814552</v>
+        <v>1048973.198814551</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>337928.0591252919</v>
+        <v>337928.0591252918</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>361205.8972371141</v>
+        <v>361205.8972371139</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3106.892043258503</v>
+        <v>3106.892043256538</v>
       </c>
       <c r="E3" t="n">
-        <v>761041.3651381427</v>
+        <v>761041.3651381441</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504109</v>
+        <v>11452.26311504202</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124946.8475185312</v>
+        <v>124946.847518531</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.017355705063</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>183367.4469033591</v>
+        <v>183367.4469033594</v>
       </c>
       <c r="E4" t="n">
         <v>6280.9479104697</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695037</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695117</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695116</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695033</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>86697.16370779419</v>
+        <v>86697.16370779414</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685287.1700692897</v>
+        <v>-685462.3963876989</v>
       </c>
       <c r="C6" t="n">
-        <v>98895.61562695754</v>
+        <v>98895.61562695766</v>
       </c>
       <c r="D6" t="n">
-        <v>96297.29378451587</v>
+        <v>96297.29378451729</v>
       </c>
       <c r="E6" t="n">
-        <v>-506258.5443253367</v>
+        <v>-506304.449320904</v>
       </c>
       <c r="F6" t="n">
-        <v>244353.6963898595</v>
+        <v>244318.9584644226</v>
       </c>
       <c r="G6" t="n">
-        <v>255805.9595049002</v>
+        <v>255771.2215794647</v>
       </c>
       <c r="H6" t="n">
-        <v>255805.9595049008</v>
+        <v>255771.2215794651</v>
       </c>
       <c r="I6" t="n">
-        <v>255805.9595049004</v>
+        <v>255771.2215794649</v>
       </c>
       <c r="J6" t="n">
-        <v>83444.96710461962</v>
+        <v>83410.22917918387</v>
       </c>
       <c r="K6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.221579465</v>
       </c>
       <c r="L6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794648</v>
       </c>
       <c r="M6" t="n">
-        <v>130859.1119863694</v>
+        <v>130824.3740609338</v>
       </c>
       <c r="N6" t="n">
-        <v>252728.9421491958</v>
+        <v>252694.2042237596</v>
       </c>
       <c r="O6" t="n">
-        <v>255805.9595049005</v>
+        <v>255771.2215794647</v>
       </c>
       <c r="P6" t="n">
-        <v>255805.9595049006</v>
+        <v>255771.2215794647</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>597.1038925545147</v>
+        <v>597.1038925545124</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26796,13 +26796,13 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.627792216449642</v>
+        <v>3.627792216447347</v>
       </c>
       <c r="E3" t="n">
-        <v>760.9371561618711</v>
+        <v>760.9371561618732</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288602</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>501.3837960808462</v>
+        <v>501.3837960808453</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364279</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.761494245161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>501.3837960808462</v>
+        <v>501.3837960808453</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364302</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>501.3837960808462</v>
+        <v>501.3837960808453</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364279</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.3060413622629</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>101.2188348539767</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.09635076551504</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>195.786403310146</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>190.6544760012694</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>84.45357593288793</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>147.6538307953238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7187051147609</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>379.7959321219485</v>
       </c>
       <c r="F8" t="n">
-        <v>10.46685663169438</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.3205521929348</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.5880212640012</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>133.2373806974128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>152.6539330497623</v>
       </c>
       <c r="I10" t="n">
-        <v>123.069824491679</v>
+        <v>123.0698244916791</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.23332811017372</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>128.8790331382411</v>
+        <v>128.8790331382413</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7410344637912</v>
       </c>
       <c r="T10" t="n">
-        <v>223.344952879091</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2602978260757</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.40041765851061</v>
+        <v>2.400417658510601</v>
       </c>
       <c r="H8" t="n">
-        <v>24.58327734522179</v>
+        <v>24.5832773452217</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54210177973039</v>
+        <v>92.54210177973003</v>
       </c>
       <c r="J8" t="n">
-        <v>203.7324482440151</v>
+        <v>203.7324482440143</v>
       </c>
       <c r="K8" t="n">
-        <v>305.3421277287692</v>
+        <v>305.3421277287681</v>
       </c>
       <c r="L8" t="n">
-        <v>378.8039096454134</v>
+        <v>378.803909645412</v>
       </c>
       <c r="M8" t="n">
-        <v>421.4923371799514</v>
+        <v>421.4923371799499</v>
       </c>
       <c r="N8" t="n">
-        <v>428.3125238521948</v>
+        <v>428.3125238521931</v>
       </c>
       <c r="O8" t="n">
-        <v>404.4433707603799</v>
+        <v>404.4433707603783</v>
       </c>
       <c r="P8" t="n">
-        <v>345.1830598158991</v>
+        <v>345.1830598158978</v>
       </c>
       <c r="Q8" t="n">
-        <v>259.2181024204878</v>
+        <v>259.2181024204868</v>
       </c>
       <c r="R8" t="n">
-        <v>150.7852357414172</v>
+        <v>150.7852357414167</v>
       </c>
       <c r="S8" t="n">
-        <v>54.69951739331058</v>
+        <v>54.69951739331037</v>
       </c>
       <c r="T8" t="n">
-        <v>10.5078283001302</v>
+        <v>10.50782830013016</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1920334126808488</v>
+        <v>0.192033412680848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28433667455122</v>
+        <v>1.284336674551215</v>
       </c>
       <c r="H9" t="n">
-        <v>12.40398840948152</v>
+        <v>12.40398840948148</v>
       </c>
       <c r="I9" t="n">
-        <v>44.21948638257491</v>
+        <v>44.21948638257474</v>
       </c>
       <c r="J9" t="n">
-        <v>121.3416504671397</v>
+        <v>121.3416504671392</v>
       </c>
       <c r="K9" t="n">
-        <v>207.3922076620714</v>
+        <v>207.3922076620706</v>
       </c>
       <c r="L9" t="n">
-        <v>278.8644169897288</v>
+        <v>278.8644169897277</v>
       </c>
       <c r="M9" t="n">
-        <v>325.4216214422104</v>
+        <v>325.4216214422092</v>
       </c>
       <c r="N9" t="n">
-        <v>334.0345634395299</v>
+        <v>334.0345634395286</v>
       </c>
       <c r="O9" t="n">
-        <v>305.5763665981581</v>
+        <v>305.5763665981569</v>
       </c>
       <c r="P9" t="n">
-        <v>245.2519742833817</v>
+        <v>245.2519742833808</v>
       </c>
       <c r="Q9" t="n">
-        <v>163.9444498953453</v>
+        <v>163.9444498953446</v>
       </c>
       <c r="R9" t="n">
-        <v>79.74153493397843</v>
+        <v>79.74153493397813</v>
       </c>
       <c r="S9" t="n">
-        <v>23.85599042422989</v>
+        <v>23.8559904242298</v>
       </c>
       <c r="T9" t="n">
-        <v>5.176778087335838</v>
+        <v>5.176778087335818</v>
       </c>
       <c r="U9" t="n">
-        <v>0.084495833852054</v>
+        <v>0.08449583385205368</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.076744724278633</v>
+        <v>1.076744724278629</v>
       </c>
       <c r="H10" t="n">
-        <v>9.573239457677307</v>
+        <v>9.573239457677271</v>
       </c>
       <c r="I10" t="n">
-        <v>32.38065043557926</v>
+        <v>32.38065043557914</v>
       </c>
       <c r="J10" t="n">
-        <v>76.12585200649934</v>
+        <v>76.12585200649906</v>
       </c>
       <c r="K10" t="n">
-        <v>125.0981597843721</v>
+        <v>125.0981597843716</v>
       </c>
       <c r="L10" t="n">
-        <v>160.0825747350251</v>
+        <v>160.0825747350245</v>
       </c>
       <c r="M10" t="n">
-        <v>168.784629824877</v>
+        <v>168.7846298248763</v>
       </c>
       <c r="N10" t="n">
-        <v>164.7713085798385</v>
+        <v>164.7713085798379</v>
       </c>
       <c r="O10" t="n">
-        <v>152.1929724825835</v>
+        <v>152.192972482583</v>
       </c>
       <c r="P10" t="n">
-        <v>130.2273801072993</v>
+        <v>130.2273801072988</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.16268777573171</v>
+        <v>90.16268777573137</v>
       </c>
       <c r="R10" t="n">
-        <v>48.41435823892834</v>
+        <v>48.41435823892815</v>
       </c>
       <c r="S10" t="n">
-        <v>18.7647239676558</v>
+        <v>18.76472396765573</v>
       </c>
       <c r="T10" t="n">
-        <v>4.600636549190521</v>
+        <v>4.600636549190503</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05873153041519823</v>
+        <v>0.058731530415198</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,10 +31832,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31844,31 +31844,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688745</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>326.9083219859716</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.3323016788549</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099988</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>210.7858894014902</v>
+        <v>141.353087059828</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622278</v>
       </c>
       <c r="L3" t="n">
-        <v>228.1588793659825</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
         <v>140.7360160012659</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>409.8005160347954</v>
       </c>
       <c r="P5" t="n">
-        <v>390.6371365497799</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>156.4923017895493</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>191.7831588894026</v>
+        <v>191.7831588894018</v>
       </c>
       <c r="K8" t="n">
-        <v>409.3976892549534</v>
+        <v>309.4644501257772</v>
       </c>
       <c r="L8" t="n">
-        <v>143.0374946754262</v>
+        <v>560.6987092258752</v>
       </c>
       <c r="M8" t="n">
-        <v>640.6596374455112</v>
+        <v>640.6596374455096</v>
       </c>
       <c r="N8" t="n">
-        <v>198.8994602556039</v>
+        <v>198.8994602556022</v>
       </c>
       <c r="O8" t="n">
-        <v>339.6757349915829</v>
+        <v>555.1453406014369</v>
       </c>
       <c r="P8" t="n">
-        <v>435.7487722321122</v>
+        <v>113.9500640606283</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.227403205943</v>
+        <v>36.91241254603736</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.9161178002669885</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>120.5950591408818</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>334.016005700291</v>
+        <v>69.55076868771161</v>
       </c>
       <c r="L9" t="n">
-        <v>511.1503825133138</v>
+        <v>511.1503825133127</v>
       </c>
       <c r="M9" t="n">
-        <v>218.3185244003949</v>
+        <v>648.9926512701909</v>
       </c>
       <c r="N9" t="n">
-        <v>202.6928513561966</v>
+        <v>367.1563083757156</v>
       </c>
       <c r="O9" t="n">
-        <v>556.8424414304432</v>
+        <v>556.842441430442</v>
       </c>
       <c r="P9" t="n">
-        <v>429.7403355089887</v>
+        <v>429.7403355089878</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.0399635451728</v>
+        <v>23.96267580932312</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.8286679584892</v>
+        <v>102.8286679584887</v>
       </c>
       <c r="L10" t="n">
-        <v>187.6725999953413</v>
+        <v>187.6725999953407</v>
       </c>
       <c r="M10" t="n">
-        <v>208.3685067867175</v>
+        <v>208.3685067867169</v>
       </c>
       <c r="N10" t="n">
-        <v>208.9034809590671</v>
+        <v>208.9034809590665</v>
       </c>
       <c r="O10" t="n">
-        <v>176.7781003966232</v>
+        <v>176.7781003966226</v>
       </c>
       <c r="P10" t="n">
-        <v>127.5059393721928</v>
+        <v>127.5059393721923</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.000644524037327</v>
+        <v>4.000644524036986</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35492,25 +35492,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855412</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>184.3120775415272</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552157</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36127,13 +36127,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
